--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pf4</t>
   </si>
   <si>
     <t>Ldlr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H2">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I2">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J2">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N2">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O2">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P2">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q2">
-        <v>1.501453376845409</v>
+        <v>0.3647731182548888</v>
       </c>
       <c r="R2">
-        <v>1.501453376845409</v>
+        <v>3.282958064294</v>
       </c>
       <c r="S2">
-        <v>0.0001441220627552998</v>
+        <v>2.719919251902108E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001441220627552998</v>
+        <v>2.719919251902108E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H3">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I3">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J3">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N3">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O3">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P3">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q3">
-        <v>31.87219148174081</v>
+        <v>5.369506119053778</v>
       </c>
       <c r="R3">
-        <v>31.87219148174081</v>
+        <v>48.325555071484</v>
       </c>
       <c r="S3">
-        <v>0.003059359718868802</v>
+        <v>0.0004003755303101973</v>
       </c>
       <c r="T3">
-        <v>0.003059359718868802</v>
+        <v>0.0004003755303101973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H4">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I4">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J4">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N4">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O4">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P4">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q4">
-        <v>18.06386186086178</v>
+        <v>5.002951613330889</v>
       </c>
       <c r="R4">
-        <v>18.06386186086178</v>
+        <v>45.026564519978</v>
       </c>
       <c r="S4">
-        <v>0.001733920661715118</v>
+        <v>0.0003730435091964461</v>
       </c>
       <c r="T4">
-        <v>0.001733920661715118</v>
+        <v>0.0003730435091964461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H5">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I5">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J5">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N5">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O5">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P5">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q5">
-        <v>18.7258914911785</v>
+        <v>3.142477695015777</v>
       </c>
       <c r="R5">
-        <v>18.7258914911785</v>
+        <v>28.282299255142</v>
       </c>
       <c r="S5">
-        <v>0.001797467807032969</v>
+        <v>0.000234317858241239</v>
       </c>
       <c r="T5">
-        <v>0.001797467807032969</v>
+        <v>0.000234317858241239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H6">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I6">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J6">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N6">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O6">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P6">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q6">
-        <v>4.390704072671895</v>
+        <v>0.7651785736962222</v>
       </c>
       <c r="R6">
-        <v>4.390704072671895</v>
+        <v>6.886607163266</v>
       </c>
       <c r="S6">
-        <v>0.0004214565284944728</v>
+        <v>5.705529902247552E-05</v>
       </c>
       <c r="T6">
-        <v>0.0004214565284944728</v>
+        <v>5.705529902247552E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H7">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I7">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J7">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N7">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O7">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P7">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q7">
-        <v>6.7823608573717</v>
+        <v>1.149752376368889</v>
       </c>
       <c r="R7">
-        <v>6.7823608573717</v>
+        <v>10.34777138732</v>
       </c>
       <c r="S7">
-        <v>0.0006510277656232923</v>
+        <v>8.573092333028646E-05</v>
       </c>
       <c r="T7">
-        <v>0.0006510277656232923</v>
+        <v>8.573092333028646E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H8">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I8">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J8">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N8">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O8">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P8">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q8">
-        <v>80.10860359674378</v>
+        <v>2.444728604822778</v>
       </c>
       <c r="R8">
-        <v>80.10860359674378</v>
+        <v>22.002557443405</v>
       </c>
       <c r="S8">
-        <v>0.007689494307886242</v>
+        <v>0.0001822904173899918</v>
       </c>
       <c r="T8">
-        <v>0.007689494307886242</v>
+        <v>0.0001822904173899918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H9">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I9">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J9">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N9">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O9">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P9">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q9">
-        <v>1700.510180698853</v>
+        <v>35.98671213992556</v>
       </c>
       <c r="R9">
-        <v>1700.510180698853</v>
+        <v>323.88040925933</v>
       </c>
       <c r="S9">
-        <v>0.1632292009583593</v>
+        <v>0.002683337841075436</v>
       </c>
       <c r="T9">
-        <v>0.1632292009583593</v>
+        <v>0.002683337841075436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H10">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I10">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J10">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N10">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O10">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P10">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q10">
-        <v>963.7800091258561</v>
+        <v>33.53004458269277</v>
       </c>
       <c r="R10">
-        <v>963.7800091258561</v>
+        <v>301.770401244235</v>
       </c>
       <c r="S10">
-        <v>0.09251167242327338</v>
+        <v>0.002500157199464349</v>
       </c>
       <c r="T10">
-        <v>0.09251167242327338</v>
+        <v>0.002500157199464349</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H11">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I11">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J11">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N11">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O11">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P11">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q11">
-        <v>999.1019645339999</v>
+        <v>21.06105062724055</v>
       </c>
       <c r="R11">
-        <v>999.1019645339999</v>
+        <v>189.549455645165</v>
       </c>
       <c r="S11">
-        <v>0.09590216935942736</v>
+        <v>0.001570410597698938</v>
       </c>
       <c r="T11">
-        <v>0.09590216935942736</v>
+        <v>0.001570410597698938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H12">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I12">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J12">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N12">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O12">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P12">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q12">
-        <v>234.2618009273665</v>
+        <v>5.128267005699445</v>
       </c>
       <c r="R12">
-        <v>234.2618009273665</v>
+        <v>46.154403051295</v>
       </c>
       <c r="S12">
-        <v>0.02248640849931611</v>
+        <v>0.0003823876119059207</v>
       </c>
       <c r="T12">
-        <v>0.02248640849931611</v>
+        <v>0.0003823876119059207</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H13">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I13">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J13">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N13">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O13">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P13">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q13">
-        <v>361.8663527966492</v>
+        <v>7.705700837877778</v>
       </c>
       <c r="R13">
-        <v>361.8663527966492</v>
+        <v>69.35130754090001</v>
       </c>
       <c r="S13">
-        <v>0.03473496147870055</v>
+        <v>0.0005745731527205561</v>
       </c>
       <c r="T13">
-        <v>0.03473496147870055</v>
+        <v>0.0005745731527205561</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H14">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I14">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J14">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N14">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O14">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P14">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q14">
-        <v>52.1704467545227</v>
+        <v>134.843175468447</v>
       </c>
       <c r="R14">
-        <v>52.1704467545227</v>
+        <v>1213.588579216023</v>
       </c>
       <c r="S14">
-        <v>0.005007756162848542</v>
+        <v>0.01005453885140637</v>
       </c>
       <c r="T14">
-        <v>0.005007756162848542</v>
+        <v>0.01005453885140637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H15">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I15">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J15">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N15">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O15">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P15">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q15">
-        <v>1107.451283063925</v>
+        <v>1984.908480247542</v>
       </c>
       <c r="R15">
-        <v>1107.451283063925</v>
+        <v>17864.17632222788</v>
       </c>
       <c r="S15">
-        <v>0.1063024438704298</v>
+        <v>0.148004074821012</v>
       </c>
       <c r="T15">
-        <v>0.1063024438704298</v>
+        <v>0.1480040748210121</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H16">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I16">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J16">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N16">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O16">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P16">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q16">
-        <v>627.6583461906414</v>
+        <v>1849.406791498089</v>
       </c>
       <c r="R16">
-        <v>627.6583461906414</v>
+        <v>16644.6611234828</v>
       </c>
       <c r="S16">
-        <v>0.06024790176877343</v>
+        <v>0.1379004341344921</v>
       </c>
       <c r="T16">
-        <v>0.06024790176877343</v>
+        <v>0.1379004341344921</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H17">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I17">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J17">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N17">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O17">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P17">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q17">
-        <v>650.661645601057</v>
+        <v>1161.658165113471</v>
       </c>
       <c r="R17">
-        <v>650.661645601057</v>
+        <v>10454.92348602124</v>
       </c>
       <c r="S17">
-        <v>0.06245595099116912</v>
+        <v>0.08661867471312933</v>
       </c>
       <c r="T17">
-        <v>0.06245595099116912</v>
+        <v>0.08661867471312933</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H18">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I18">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J18">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N18">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O18">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P18">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q18">
-        <v>152.5621751369106</v>
+        <v>282.858312507333</v>
       </c>
       <c r="R18">
-        <v>152.5621751369106</v>
+        <v>2545.724812565997</v>
       </c>
       <c r="S18">
-        <v>0.01464419456391201</v>
+        <v>0.02109124086308481</v>
       </c>
       <c r="T18">
-        <v>0.01464419456391201</v>
+        <v>0.02109124086308481</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H19">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I19">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J19">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N19">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O19">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P19">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q19">
-        <v>235.6641914002641</v>
+        <v>425.02107110766</v>
       </c>
       <c r="R19">
-        <v>235.6641914002641</v>
+        <v>3825.18963996894</v>
       </c>
       <c r="S19">
-        <v>0.02262102167536226</v>
+        <v>0.03169156212223941</v>
       </c>
       <c r="T19">
-        <v>0.02262102167536226</v>
+        <v>0.03169156212223941</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H20">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I20">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J20">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N20">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O20">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P20">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q20">
-        <v>58.53218916798062</v>
+        <v>82.735723258044</v>
       </c>
       <c r="R20">
-        <v>58.53218916798062</v>
+        <v>744.6215093223959</v>
       </c>
       <c r="S20">
-        <v>0.005618409449513891</v>
+        <v>0.006169163111201461</v>
       </c>
       <c r="T20">
-        <v>0.005618409449513891</v>
+        <v>0.006169163111201461</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H21">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I21">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J21">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N21">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O21">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P21">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q21">
-        <v>1242.495551161848</v>
+        <v>1217.880238608984</v>
       </c>
       <c r="R21">
-        <v>1242.495551161848</v>
+        <v>10960.92214748086</v>
       </c>
       <c r="S21">
-        <v>0.1192651230862469</v>
+        <v>0.09081085589177219</v>
       </c>
       <c r="T21">
-        <v>0.1192651230862469</v>
+        <v>0.09081085589177221</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H22">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I22">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J22">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N22">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O22">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P22">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q22">
-        <v>704.1959449754496</v>
+        <v>1134.740471376228</v>
       </c>
       <c r="R22">
-        <v>704.1959449754496</v>
+        <v>10212.66424238605</v>
       </c>
       <c r="S22">
-        <v>0.06759462114435603</v>
+        <v>0.08461156536902538</v>
       </c>
       <c r="T22">
-        <v>0.06759462114435603</v>
+        <v>0.08461156536902539</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H23">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I23">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J23">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N23">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O23">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P23">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q23">
-        <v>730.0043011682479</v>
+        <v>712.758566648892</v>
       </c>
       <c r="R23">
-        <v>730.0043011682479</v>
+        <v>6414.827099840028</v>
       </c>
       <c r="S23">
-        <v>0.07007192319594853</v>
+        <v>0.05314661772942997</v>
       </c>
       <c r="T23">
-        <v>0.07007192319594853</v>
+        <v>0.05314661772942997</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>66.2924025673385</v>
+        <v>63.709236</v>
       </c>
       <c r="H24">
-        <v>66.2924025673385</v>
+        <v>191.127708</v>
       </c>
       <c r="I24">
-        <v>0.304359469396052</v>
+        <v>0.267124144996993</v>
       </c>
       <c r="J24">
-        <v>0.304359469396052</v>
+        <v>0.2671241449969931</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N24">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O24">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P24">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q24">
-        <v>171.1658352670347</v>
+        <v>173.553366594516</v>
       </c>
       <c r="R24">
-        <v>171.1658352670347</v>
+        <v>1561.980299350644</v>
       </c>
       <c r="S24">
-        <v>0.01642992958179534</v>
+        <v>0.01294095204414153</v>
       </c>
       <c r="T24">
-        <v>0.01642992958179534</v>
+        <v>0.01294095204414153</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>63.709236</v>
+      </c>
+      <c r="H25">
+        <v>191.127708</v>
+      </c>
+      <c r="I25">
+        <v>0.267124144996993</v>
+      </c>
+      <c r="J25">
+        <v>0.2671241449969931</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.093286666666667</v>
+      </c>
+      <c r="N25">
+        <v>12.27986</v>
+      </c>
+      <c r="O25">
+        <v>0.0727938346855219</v>
+      </c>
+      <c r="P25">
+        <v>0.0727938346855219</v>
+      </c>
+      <c r="Q25">
+        <v>260.78016626232</v>
+      </c>
+      <c r="R25">
+        <v>2347.021496360881</v>
+      </c>
+      <c r="S25">
+        <v>0.01944499085142249</v>
+      </c>
+      <c r="T25">
+        <v>0.01944499085142249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H26">
+        <v>205.966888</v>
+      </c>
+      <c r="I26">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J26">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.298645666666667</v>
+      </c>
+      <c r="N26">
+        <v>3.895937</v>
+      </c>
+      <c r="O26">
+        <v>0.02309474162760879</v>
+      </c>
+      <c r="P26">
+        <v>0.02309474162760879</v>
+      </c>
+      <c r="Q26">
+        <v>89.15933552600622</v>
+      </c>
+      <c r="R26">
+        <v>802.4340197340559</v>
+      </c>
+      <c r="S26">
+        <v>0.006648137734056661</v>
+      </c>
+      <c r="T26">
+        <v>0.006648137734056659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H27">
+        <v>205.966888</v>
+      </c>
+      <c r="I27">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J27">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>19.11622733333333</v>
+      </c>
+      <c r="N27">
+        <v>57.348682</v>
+      </c>
+      <c r="O27">
+        <v>0.3399574976376413</v>
+      </c>
+      <c r="P27">
+        <v>0.3399574976376413</v>
+      </c>
+      <c r="Q27">
+        <v>1312.436618049069</v>
+      </c>
+      <c r="R27">
+        <v>11811.92956244162</v>
+      </c>
+      <c r="S27">
+        <v>0.09786142250314007</v>
+      </c>
+      <c r="T27">
+        <v>0.09786142250314007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H28">
+        <v>205.966888</v>
+      </c>
+      <c r="I28">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J28">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>17.81123966666667</v>
+      </c>
+      <c r="N28">
+        <v>53.433719</v>
+      </c>
+      <c r="O28">
+        <v>0.3167499717031489</v>
+      </c>
+      <c r="P28">
+        <v>0.3167499717031489</v>
+      </c>
+      <c r="Q28">
+        <v>1222.84186852183</v>
+      </c>
+      <c r="R28">
+        <v>11005.57681669647</v>
+      </c>
+      <c r="S28">
+        <v>0.0911808182614042</v>
+      </c>
+      <c r="T28">
+        <v>0.0911808182614042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H29">
+        <v>205.966888</v>
+      </c>
+      <c r="I29">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J29">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.18768033333333</v>
+      </c>
+      <c r="N29">
+        <v>33.563041</v>
+      </c>
+      <c r="O29">
+        <v>0.1989584944858812</v>
+      </c>
+      <c r="P29">
+        <v>0.1989584944858812</v>
+      </c>
+      <c r="Q29">
+        <v>768.0972340651565</v>
+      </c>
+      <c r="R29">
+        <v>6912.875106586408</v>
+      </c>
+      <c r="S29">
+        <v>0.05727292801238593</v>
+      </c>
+      <c r="T29">
+        <v>0.05727292801238593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H30">
+        <v>205.966888</v>
+      </c>
+      <c r="I30">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J30">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.724147666666667</v>
+      </c>
+      <c r="N30">
+        <v>8.172442999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.04844545986019796</v>
+      </c>
+      <c r="P30">
+        <v>0.04844545986019796</v>
+      </c>
+      <c r="Q30">
+        <v>187.0280724519316</v>
+      </c>
+      <c r="R30">
+        <v>1683.252652067384</v>
+      </c>
+      <c r="S30">
+        <v>0.01394568923669125</v>
+      </c>
+      <c r="T30">
+        <v>0.01394568923669125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>66.2924025673385</v>
-      </c>
-      <c r="H25">
-        <v>66.2924025673385</v>
-      </c>
-      <c r="I25">
-        <v>0.304359469396052</v>
-      </c>
-      <c r="J25">
-        <v>0.304359469396052</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.98841233107681</v>
-      </c>
-      <c r="N25">
-        <v>3.98841233107681</v>
-      </c>
-      <c r="O25">
-        <v>0.08338647385787745</v>
-      </c>
-      <c r="P25">
-        <v>0.08338647385787745</v>
-      </c>
-      <c r="Q25">
-        <v>264.4014358562808</v>
-      </c>
-      <c r="R25">
-        <v>264.4014358562808</v>
-      </c>
-      <c r="S25">
-        <v>0.02537946293819134</v>
-      </c>
-      <c r="T25">
-        <v>0.02537946293819134</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H31">
+        <v>205.966888</v>
+      </c>
+      <c r="I31">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J31">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.093286666666667</v>
+      </c>
+      <c r="N31">
+        <v>12.27986</v>
+      </c>
+      <c r="O31">
+        <v>0.0727938346855219</v>
+      </c>
+      <c r="P31">
+        <v>0.0727938346855219</v>
+      </c>
+      <c r="Q31">
+        <v>281.0271721417423</v>
+      </c>
+      <c r="R31">
+        <v>2529.244549275681</v>
+      </c>
+      <c r="S31">
+        <v>0.02095470245923716</v>
+      </c>
+      <c r="T31">
+        <v>0.02095470245923716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.415529</v>
+      </c>
+      <c r="I32">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J32">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.298645666666667</v>
+      </c>
+      <c r="N32">
+        <v>3.895937</v>
+      </c>
+      <c r="O32">
+        <v>0.02309474162760879</v>
+      </c>
+      <c r="P32">
+        <v>0.02309474162760879</v>
+      </c>
+      <c r="Q32">
+        <v>0.1798749784081111</v>
+      </c>
+      <c r="R32">
+        <v>1.618874805673</v>
+      </c>
+      <c r="S32">
+        <v>1.341232103528617E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.341232103528617E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.415529</v>
+      </c>
+      <c r="I33">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J33">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>19.11622733333333</v>
+      </c>
+      <c r="N33">
+        <v>57.348682</v>
+      </c>
+      <c r="O33">
+        <v>0.3399574976376413</v>
+      </c>
+      <c r="P33">
+        <v>0.3399574976376413</v>
+      </c>
+      <c r="Q33">
+        <v>2.647782275864222</v>
+      </c>
+      <c r="R33">
+        <v>23.830040482778</v>
+      </c>
+      <c r="S33">
+        <v>0.0001974310503312906</v>
+      </c>
+      <c r="T33">
+        <v>0.0001974310503312906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.415529</v>
+      </c>
+      <c r="I34">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J34">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>17.81123966666667</v>
+      </c>
+      <c r="N34">
+        <v>53.433719</v>
+      </c>
+      <c r="O34">
+        <v>0.3167499717031489</v>
+      </c>
+      <c r="P34">
+        <v>0.3167499717031489</v>
+      </c>
+      <c r="Q34">
+        <v>2.467028869150111</v>
+      </c>
+      <c r="R34">
+        <v>22.203259822351</v>
+      </c>
+      <c r="S34">
+        <v>0.0001839532295664098</v>
+      </c>
+      <c r="T34">
+        <v>0.0001839532295664098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.415529</v>
+      </c>
+      <c r="I35">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J35">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>11.18768033333333</v>
+      </c>
+      <c r="N35">
+        <v>33.563041</v>
+      </c>
+      <c r="O35">
+        <v>0.1989584944858812</v>
+      </c>
+      <c r="P35">
+        <v>0.1989584944858812</v>
+      </c>
+      <c r="Q35">
+        <v>1.549601873743222</v>
+      </c>
+      <c r="R35">
+        <v>13.946416863689</v>
+      </c>
+      <c r="S35">
+        <v>0.0001155455749958154</v>
+      </c>
+      <c r="T35">
+        <v>0.0001155455749958154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.415529</v>
+      </c>
+      <c r="I36">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J36">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.724147666666667</v>
+      </c>
+      <c r="N36">
+        <v>8.172442999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.04844545986019796</v>
+      </c>
+      <c r="P36">
+        <v>0.04844545986019796</v>
+      </c>
+      <c r="Q36">
+        <v>0.3773207852607778</v>
+      </c>
+      <c r="R36">
+        <v>3.395887067347</v>
+      </c>
+      <c r="S36">
+        <v>2.813480535198007E-05</v>
+      </c>
+      <c r="T36">
+        <v>2.813480535198007E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.415529</v>
+      </c>
+      <c r="I37">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J37">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.093286666666667</v>
+      </c>
+      <c r="N37">
+        <v>12.27986</v>
+      </c>
+      <c r="O37">
+        <v>0.0727938346855219</v>
+      </c>
+      <c r="P37">
+        <v>0.0727938346855219</v>
+      </c>
+      <c r="Q37">
+        <v>0.5669597717711111</v>
+      </c>
+      <c r="R37">
+        <v>5.102637945940001</v>
+      </c>
+      <c r="S37">
+        <v>4.227517657199519E-05</v>
+      </c>
+      <c r="T37">
+        <v>4.227517657199519E-05</v>
       </c>
     </row>
   </sheetData>
